--- a/ООО ЧОО «ЧК-Регион».xlsx
+++ b/ООО ЧОО «ЧК-Регион».xlsx
@@ -77,7 +77,7 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="14.08988764044944"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="15.18988764044944"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="18.48988764044944"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="22.88988764044944"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.38988764044944"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="16.28988764044944"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="18.48988764044944"/>
   </cols>
@@ -143,10 +143,8 @@
       <c r="D3" s="0" t="n">
         <v>1234</v>
       </c>
-      <c r="E3" s="0" t="inlineStr">
-        <is>
-          <t>ООО ЧОО «ЧК-Регион»</t>
-        </is>
+      <c r="E3" s="0" t="n">
+        <v>222.0</v>
       </c>
       <c r="F3" s="0" t="inlineStr">
         <is>
